--- a/output/cpi_metrics.xlsx
+++ b/output/cpi_metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>区域</t>
   </si>
@@ -58,10 +58,7 @@
     <t>2025-08</t>
   </si>
   <si>
-    <t>2025-07</t>
-  </si>
-  <si>
-    <t>2016-07 to 2025-07</t>
+    <t>2016-08 to 2025-08</t>
   </si>
   <si>
     <t>2016-10 to 2025-08</t>
@@ -70,7 +67,7 @@
     <t>2016-09 to 2025-08</t>
   </si>
   <si>
-    <t>2024-07 to 2025-07</t>
+    <t>2024-08 to 2025-08</t>
   </si>
 </sst>
 </file>
@@ -474,16 +471,16 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>3.12</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2">
-        <v>3.07</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -509,7 +506,7 @@
         <v>2.86</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -535,7 +532,7 @@
         <v>1.46</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,22 +543,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
